--- a/data/trans_orig/Q02D_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R2-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4498</v>
+        <v>4903</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006766711883875514</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03400018061014969</v>
+        <v>0.0370631482988928</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>8502</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3882</v>
+        <v>3915</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16186</v>
+        <v>16558</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03864963620065859</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01764880441006782</v>
+        <v>0.01779897895989671</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07358154132681985</v>
+        <v>0.0752726510009059</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>9397</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4846</v>
+        <v>4206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18157</v>
+        <v>16702</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02667668125292624</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01375676538558695</v>
+        <v>0.01194039035178688</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05154599899632669</v>
+        <v>0.04741542521784439</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>8633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3940</v>
+        <v>3779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16141</v>
+        <v>16246</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06525880047431318</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02978221803279862</v>
+        <v>0.02856609406858167</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1220158791678908</v>
+        <v>0.1228122376778058</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -836,19 +836,19 @@
         <v>18808</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11314</v>
+        <v>11634</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29240</v>
+        <v>28636</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08549938579822761</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05143385105714175</v>
+        <v>0.05289045797615879</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1329270732499399</v>
+        <v>0.1301773460305766</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -857,19 +857,19 @@
         <v>27440</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18846</v>
+        <v>17892</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39499</v>
+        <v>39367</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07789846394453825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05349947919604096</v>
+        <v>0.05079212918255422</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1121313420184449</v>
+        <v>0.1117555266416973</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>122754</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>115195</v>
+        <v>115287</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>127515</v>
+        <v>128374</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9279744876418113</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8708284748434044</v>
+        <v>0.8715230956231615</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9639633418623869</v>
+        <v>0.9704548829606009</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>189</v>
@@ -907,19 +907,19 @@
         <v>192664</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>181081</v>
+        <v>181074</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>202905</v>
+        <v>201118</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8758509780011138</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8231985741570064</v>
+        <v>0.8231651535384515</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9224083162433138</v>
+        <v>0.9142846183925335</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>308</v>
@@ -928,19 +928,19 @@
         <v>315419</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>301274</v>
+        <v>303568</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>325796</v>
+        <v>326676</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8954248548025355</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8552712622370952</v>
+        <v>0.8617824660196579</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9248843641261504</v>
+        <v>0.9273813401428098</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>5279</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1879</v>
+        <v>1995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10925</v>
+        <v>12209</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02665173571517587</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009486806892727873</v>
+        <v>0.01007098771084888</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05515544300489196</v>
+        <v>0.06164139313428635</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -1053,19 +1053,19 @@
         <v>15774</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8693</v>
+        <v>8771</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26225</v>
+        <v>25579</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05207886696414161</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02870180062458609</v>
+        <v>0.02895837195114961</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0865834850622469</v>
+        <v>0.0844493166436449</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -1074,19 +1074,19 @@
         <v>21053</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12994</v>
+        <v>13179</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32006</v>
+        <v>33305</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0420255421621426</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02593824078109626</v>
+        <v>0.02630844171447922</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06389024219564934</v>
+        <v>0.06648254606860696</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>16920</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9726</v>
+        <v>9527</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27949</v>
+        <v>27393</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0854268165945254</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04910518767858221</v>
+        <v>0.04810005762575442</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1411058144964939</v>
+        <v>0.1382989492583264</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>41</v>
@@ -1124,19 +1124,19 @@
         <v>46209</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>33524</v>
+        <v>33596</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60349</v>
+        <v>60929</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1525594060108848</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1106819750700862</v>
+        <v>0.110917086752241</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1992430121607707</v>
+        <v>0.2011584826933367</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>55</v>
@@ -1145,19 +1145,19 @@
         <v>63129</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>48910</v>
+        <v>47806</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>81056</v>
+        <v>79632</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1260166663052661</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09763292024055757</v>
+        <v>0.09542844007744822</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1618015278709955</v>
+        <v>0.1589586798300171</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>175869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164704</v>
+        <v>164682</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184386</v>
+        <v>184326</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8879214476902987</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8315533847211222</v>
+        <v>0.831441592886576</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9309227976517689</v>
+        <v>0.9306182856476151</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>229</v>
@@ -1195,19 +1195,19 @@
         <v>240907</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>225113</v>
+        <v>225202</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>255650</v>
+        <v>254349</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7953617270249735</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7432181588421181</v>
+        <v>0.743511611433467</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8440350643746202</v>
+        <v>0.8397396842946897</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>392</v>
@@ -1216,19 +1216,19 @@
         <v>416776</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>397843</v>
+        <v>397187</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>433975</v>
+        <v>432822</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8319577915325913</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7941638785918165</v>
+        <v>0.7928540255422774</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8662894786300952</v>
+        <v>0.8639879353332698</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6317</v>
+        <v>6618</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01581644907168325</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04979660615689687</v>
+        <v>0.05216916394333519</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1341,19 +1341,19 @@
         <v>9302</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4505</v>
+        <v>4451</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17401</v>
+        <v>17178</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04733678365083859</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02292481365266713</v>
+        <v>0.02265010122984202</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08854539624104955</v>
+        <v>0.08741358701836056</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1362,19 +1362,19 @@
         <v>11309</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5578</v>
+        <v>5601</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20152</v>
+        <v>19302</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03497111093758095</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01724965255210963</v>
+        <v>0.01731969895122164</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06231610312516732</v>
+        <v>0.05968921005429713</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>10046</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5700</v>
+        <v>4883</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17705</v>
+        <v>17622</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07918584803852929</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04493054232441732</v>
+        <v>0.03849240006191599</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1395537835304136</v>
+        <v>0.1389009004912511</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -1412,19 +1412,19 @@
         <v>37929</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27300</v>
+        <v>27739</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48780</v>
+        <v>49452</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1930041755489601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1389213253242088</v>
+        <v>0.1411533727765418</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.248222553274876</v>
+        <v>0.2516406334992184</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -1433,19 +1433,19 @@
         <v>47975</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36748</v>
+        <v>36177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61101</v>
+        <v>62425</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1483523593307684</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1136376643541602</v>
+        <v>0.1118710210531912</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1889444704204205</v>
+        <v>0.1930386915736847</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>114813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106352</v>
+        <v>107225</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119679</v>
+        <v>120368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9049977028897874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.838305613164877</v>
+        <v>0.845185361133365</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9433512475873603</v>
+        <v>0.9487817291792104</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>147</v>
@@ -1483,19 +1483,19 @@
         <v>149286</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>137005</v>
+        <v>136584</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>161280</v>
+        <v>161021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7596590408002013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6971672080024599</v>
+        <v>0.6950229784134685</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.820691898672364</v>
+        <v>0.8193757680361463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>255</v>
@@ -1504,19 +1504,19 @@
         <v>264099</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>249943</v>
+        <v>249976</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>277132</v>
+        <v>277448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8166765297316506</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7729020017571614</v>
+        <v>0.7730023997541654</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8569783908409693</v>
+        <v>0.8579549882086664</v>
       </c>
     </row>
     <row r="15">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7803</v>
+        <v>7449</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01455038334948798</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04746275959691591</v>
+        <v>0.04531003326170981</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1629,19 +1629,19 @@
         <v>16378</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9153</v>
+        <v>9455</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25638</v>
+        <v>27070</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05895913090437261</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03294870915773325</v>
+        <v>0.03403757935707029</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09229575214573299</v>
+        <v>0.09745037528742191</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1650,19 +1650,19 @@
         <v>18770</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11735</v>
+        <v>11593</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30134</v>
+        <v>29778</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04244780144836373</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02653819664937275</v>
+        <v>0.02621702621117562</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06814714100275285</v>
+        <v>0.06734253099302109</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>6997</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3449</v>
+        <v>3421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12753</v>
+        <v>13226</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04255622341163104</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02097770667507251</v>
+        <v>0.0208080078087825</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0775673078700546</v>
+        <v>0.08044657867693167</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -1700,19 +1700,19 @@
         <v>47306</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35923</v>
+        <v>36041</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61978</v>
+        <v>61791</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1702979029503199</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1293226260568288</v>
+        <v>0.1297473660959617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2231198130527285</v>
+        <v>0.2224448132064217</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>52</v>
@@ -1721,19 +1721,19 @@
         <v>54302</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42154</v>
+        <v>42474</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68378</v>
+        <v>69803</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1228030945565352</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09533099853765564</v>
+        <v>0.09605419506178932</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1546358601572163</v>
+        <v>0.1578581962009138</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>155018</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>148120</v>
+        <v>147969</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>159393</v>
+        <v>159977</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.942893393238881</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9009339619464674</v>
+        <v>0.9000166477680801</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9695031470230125</v>
+        <v>0.9730516828395039</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>208</v>
@@ -1771,19 +1771,19 @@
         <v>214098</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>199033</v>
+        <v>197836</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>226134</v>
+        <v>227440</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7707429661453075</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7165091199853548</v>
+        <v>0.7122021246766257</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8140746614842597</v>
+        <v>0.8187759550670831</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>367</v>
@@ -1792,19 +1792,19 @@
         <v>369116</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>352569</v>
+        <v>352182</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>383533</v>
+        <v>384021</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.834749103995101</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7973279831543151</v>
+        <v>0.7964531924619831</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8673532105891842</v>
+        <v>0.8684570086605639</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>10573</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5375</v>
+        <v>5340</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19073</v>
+        <v>18934</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01700825399198888</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008646045663105962</v>
+        <v>0.008590296928139561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03068279950719993</v>
+        <v>0.03045944287669898</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -1917,19 +1917,19 @@
         <v>49956</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36612</v>
+        <v>37910</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>65746</v>
+        <v>64738</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05009847472234107</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03671637061760159</v>
+        <v>0.0380175555272225</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06593263629744277</v>
+        <v>0.06492209774478441</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>55</v>
@@ -1938,19 +1938,19 @@
         <v>60529</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>44682</v>
+        <v>45525</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>77488</v>
+        <v>77996</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03739164064101837</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02760230341380234</v>
+        <v>0.02812298885809222</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04786814145442439</v>
+        <v>0.04818209306034788</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>42595</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31717</v>
+        <v>31190</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>57844</v>
+        <v>57582</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06852289849745966</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0510237497569116</v>
+        <v>0.05017449916687127</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09305364422752574</v>
+        <v>0.09263241913508159</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>140</v>
@@ -1988,19 +1988,19 @@
         <v>150251</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>129686</v>
+        <v>129466</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>174801</v>
+        <v>173574</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1506781460756626</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1300549322742648</v>
+        <v>0.1298340025070558</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1752981302185422</v>
+        <v>0.174068368478912</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>180</v>
@@ -2009,19 +2009,19 @@
         <v>192846</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>166544</v>
+        <v>166774</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>220264</v>
+        <v>221044</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1191300609663765</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1028824177181045</v>
+        <v>0.1030241749191223</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1360673038045701</v>
+        <v>0.1365496950315941</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>568454</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>552346</v>
+        <v>552485</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>581075</v>
+        <v>580449</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9144688475105515</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8885567094124864</v>
+        <v>0.8887790665100262</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9347716174885692</v>
+        <v>0.933764860218686</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>773</v>
@@ -2059,19 +2059,19 @@
         <v>796955</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>770165</v>
+        <v>770911</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>819567</v>
+        <v>821498</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7992233792019963</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7723568543905481</v>
+        <v>0.7731053555151441</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8218999061915163</v>
+        <v>0.8238365066312404</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1322</v>
@@ -2080,19 +2080,19 @@
         <v>1365409</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1336171</v>
+        <v>1332417</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1395624</v>
+        <v>1393957</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8434782983926051</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8254163907998381</v>
+        <v>0.8230971703339086</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8621437200701898</v>
+        <v>0.8611137763232748</v>
       </c>
     </row>
     <row r="23">
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4328</v>
+        <v>4371</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00433249147611009</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02188550491965825</v>
+        <v>0.02210337398319923</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3992</v>
+        <v>4294</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001744280769630863</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008125965538779131</v>
+        <v>0.00874221964502824</v>
       </c>
     </row>
     <row r="5">
@@ -2487,19 +2487,19 @@
         <v>30736</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21552</v>
+        <v>21774</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42793</v>
+        <v>41768</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.15541143802887</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1089746852502354</v>
+        <v>0.1100989501596917</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2163749451111607</v>
+        <v>0.2111942226549503</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>70</v>
@@ -2508,19 +2508,19 @@
         <v>73592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59479</v>
+        <v>59101</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>88983</v>
+        <v>90665</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2507746479961943</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2026835115956138</v>
+        <v>0.201395120045651</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3032211697846037</v>
+        <v>0.3089544797951027</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>100</v>
@@ -2529,19 +2529,19 @@
         <v>104328</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>86134</v>
+        <v>85051</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>124505</v>
+        <v>123070</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2123809860135925</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1753436695043487</v>
+        <v>0.1731385948886152</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2534562320336019</v>
+        <v>0.250535072784988</v>
       </c>
     </row>
     <row r="6">
@@ -2558,19 +2558,19 @@
         <v>166178</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>154030</v>
+        <v>154803</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>175213</v>
+        <v>175899</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8402560704950199</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7788288272721169</v>
+        <v>0.7827399058107373</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8859364345330505</v>
+        <v>0.8894097629858954</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>204</v>
@@ -2579,19 +2579,19 @@
         <v>219866</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>204475</v>
+        <v>202793</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>233979</v>
+        <v>234357</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7492253520038057</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6967788302153962</v>
+        <v>0.6910455202048973</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7973164884043862</v>
+        <v>0.7986048799543489</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>362</v>
@@ -2600,19 +2600,19 @@
         <v>386044</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>366244</v>
+        <v>367342</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>404943</v>
+        <v>405034</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7858747332167766</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7455665434941036</v>
+        <v>0.7478028079256966</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8243461215932298</v>
+        <v>0.8245313184939961</v>
       </c>
     </row>
     <row r="7">
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4398</v>
+        <v>6101</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003439867724185116</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01469494769656341</v>
+        <v>0.02038447501460794</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12289</v>
+        <v>9227</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004084034916912399</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02689337510045621</v>
+        <v>0.02019086586708261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10316</v>
+        <v>10182</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003829097871892625</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01364111766565548</v>
+        <v>0.01346371758230915</v>
       </c>
     </row>
     <row r="9">
@@ -2775,19 +2775,19 @@
         <v>44192</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33304</v>
+        <v>32970</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>57448</v>
+        <v>58100</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1476508414348896</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1112730189585412</v>
+        <v>0.1101546499160335</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1919385136834841</v>
+        <v>0.1941176792707685</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>94</v>
@@ -2796,19 +2796,19 @@
         <v>106346</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>88949</v>
+        <v>87425</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>125794</v>
+        <v>126713</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2327209637227746</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1946503336472407</v>
+        <v>0.1913154704940903</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2752788836641356</v>
+        <v>0.277289129576412</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>136</v>
@@ -2817,19 +2817,19 @@
         <v>150539</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>128621</v>
+        <v>128220</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>176443</v>
+        <v>175189</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1990534223757474</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1700717217243851</v>
+        <v>0.16954157480228</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2333066055015301</v>
+        <v>0.2316480728256523</v>
       </c>
     </row>
     <row r="10">
@@ -2846,19 +2846,19 @@
         <v>254082</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>240481</v>
+        <v>240156</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>264989</v>
+        <v>265663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8489092908409253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8034680608308952</v>
+        <v>0.8023827577373774</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8853514420743461</v>
+        <v>0.8876038147965942</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>319</v>
@@ -2867,19 +2867,19 @@
         <v>348756</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>328237</v>
+        <v>327371</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>366272</v>
+        <v>366956</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.763195001360313</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7182918563655051</v>
+        <v>0.7163963487370727</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8015251136505501</v>
+        <v>0.8030208106902815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>557</v>
@@ -2888,19 +2888,19 @@
         <v>602838</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>576577</v>
+        <v>578559</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>624117</v>
+        <v>625814</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.79711747975236</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7623926067623842</v>
+        <v>0.7650135911167006</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8252532008714482</v>
+        <v>0.8274975073892001</v>
       </c>
     </row>
     <row r="11">
@@ -3039,19 +3039,19 @@
         <v>25295</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16973</v>
+        <v>16537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35719</v>
+        <v>35952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1172192973240097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07865313235391926</v>
+        <v>0.07663086399329151</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1655209919135658</v>
+        <v>0.1666029913565605</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -3060,19 +3060,19 @@
         <v>92861</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75913</v>
+        <v>75483</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111352</v>
+        <v>110875</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2642318090792816</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2160060506937851</v>
+        <v>0.2147836210017186</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3168485465188464</v>
+        <v>0.3154909456744703</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -3081,19 +3081,19 @@
         <v>118156</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99503</v>
+        <v>99067</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>140236</v>
+        <v>137018</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2083028822464573</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1754175178664528</v>
+        <v>0.1746491872587794</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2472289911470735</v>
+        <v>0.2415556198944148</v>
       </c>
     </row>
     <row r="14">
@@ -3110,19 +3110,19 @@
         <v>190501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>180077</v>
+        <v>179844</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>198823</v>
+        <v>199259</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8827807026759903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8344790080864338</v>
+        <v>0.8333970086434398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9213468676460802</v>
+        <v>0.9233691360067089</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>239</v>
@@ -3131,19 +3131,19 @@
         <v>258576</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>240085</v>
+        <v>240562</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>275524</v>
+        <v>275954</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7357681909207183</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6831514534811537</v>
+        <v>0.6845090543255298</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.783993949306215</v>
+        <v>0.7852163789982818</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>413</v>
@@ -3152,19 +3152,19 @@
         <v>449077</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>426997</v>
+        <v>430215</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>467730</v>
+        <v>468166</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7916971177535427</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7527710088529265</v>
+        <v>0.7584443801055852</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8245824821335473</v>
+        <v>0.8253508127412206</v>
       </c>
     </row>
     <row r="15">
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4692</v>
+        <v>5506</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003607749843319031</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01806441824267898</v>
+        <v>0.02120123348152149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5635</v>
+        <v>4930</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002392549663308976</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01391747073356236</v>
+        <v>0.01217607595554055</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6646</v>
+        <v>5974</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002867418421298054</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00999992059440941</v>
+        <v>0.008988573699904662</v>
       </c>
     </row>
     <row r="17">
@@ -3327,19 +3327,19 @@
         <v>29402</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20559</v>
+        <v>19646</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41652</v>
+        <v>42985</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1132060345083132</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07915960218173847</v>
+        <v>0.07564084359894167</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1603722987595956</v>
+        <v>0.165505579010873</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>94</v>
@@ -3348,19 +3348,19 @@
         <v>95780</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79557</v>
+        <v>80235</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>112920</v>
+        <v>113439</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2365438650991697</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1964788179043983</v>
+        <v>0.1981545981702433</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2788756193796979</v>
+        <v>0.2801566440773465</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>121</v>
@@ -3369,19 +3369,19 @@
         <v>125182</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>106560</v>
+        <v>104390</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>146337</v>
+        <v>145158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.188346635219511</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.160328730516561</v>
+        <v>0.157063434495737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2201758217405069</v>
+        <v>0.2184029678159534</v>
       </c>
     </row>
     <row r="18">
@@ -3398,19 +3398,19 @@
         <v>229383</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>216808</v>
+        <v>215271</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>238294</v>
+        <v>238889</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8831862156483677</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8347698826387751</v>
+        <v>0.8288503902478899</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9174957481812672</v>
+        <v>0.9197863642618791</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>293</v>
@@ -3419,19 +3419,19 @@
         <v>308165</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>290100</v>
+        <v>290130</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>324584</v>
+        <v>323975</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7610635852375213</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7164503299098358</v>
+        <v>0.71652476372959</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8016150159731985</v>
+        <v>0.8001097197728013</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>517</v>
@@ -3440,19 +3440,19 @@
         <v>537547</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>515957</v>
+        <v>517948</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>556205</v>
+        <v>558268</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8087859463591909</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7763019971510629</v>
+        <v>0.7792973963964276</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8368572991313479</v>
+        <v>0.8399613821200418</v>
       </c>
     </row>
     <row r="19">
@@ -3544,19 +3544,19 @@
         <v>2823</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7749</v>
+        <v>7348</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002902981236648674</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0008817959048136188</v>
+        <v>0.000870766672680199</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007967509154130524</v>
+        <v>0.007554893005643715</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11015</v>
+        <v>11197</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001881532933156799</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.007310442545703327</v>
+        <v>0.007431185319937984</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -3586,19 +3586,19 @@
         <v>5658</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1877</v>
+        <v>1900</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14118</v>
+        <v>13039</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002282221047482923</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0007571023304493666</v>
+        <v>0.0007662892711385655</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005694277024825043</v>
+        <v>0.005258902822769631</v>
       </c>
     </row>
     <row r="21">
@@ -3615,19 +3615,19 @@
         <v>129626</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>108093</v>
+        <v>108418</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>152608</v>
+        <v>151973</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1332786859129319</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1111385035696009</v>
+        <v>0.1114729602580835</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1569077986946813</v>
+        <v>0.1562555954784756</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>341</v>
@@ -3636,19 +3636,19 @@
         <v>368579</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>334690</v>
+        <v>332624</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>402322</v>
+        <v>403333</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2446139139715547</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2221231856865319</v>
+        <v>0.2207522292084227</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2670081302055077</v>
+        <v>0.2676791437000922</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>465</v>
@@ -3657,19 +3657,19 @@
         <v>498205</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>459068</v>
+        <v>458564</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>542969</v>
+        <v>536846</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2009399439464692</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.185154978149256</v>
+        <v>0.184951712802076</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2189947807205609</v>
+        <v>0.2165251290878553</v>
       </c>
     </row>
     <row r="22">
@@ -3686,19 +3686,19 @@
         <v>840145</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>818795</v>
+        <v>818172</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>861693</v>
+        <v>862933</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8638183328504194</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8418667926828221</v>
+        <v>0.8412262698378625</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8859737077621977</v>
+        <v>0.8872484422855288</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1055</v>
@@ -3707,19 +3707,19 @@
         <v>1135363</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1100943</v>
+        <v>1100947</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1168388</v>
+        <v>1171487</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7535045530952885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7306606401253997</v>
+        <v>0.7306634833468637</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7754218475401248</v>
+        <v>0.7774787114524477</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1849</v>
@@ -3728,19 +3728,19 @@
         <v>1975508</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1931930</v>
+        <v>1936871</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2016247</v>
+        <v>2015674</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7967778350060479</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7792015014484871</v>
+        <v>0.7811946879821439</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8132090207168394</v>
+        <v>0.8129778150999486</v>
       </c>
     </row>
     <row r="23">
@@ -4072,19 +4072,19 @@
         <v>8084</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3876</v>
+        <v>3899</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14494</v>
+        <v>15967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05287108596553858</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02535057635338174</v>
+        <v>0.02550101274848187</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09479269296479491</v>
+        <v>0.1044236901700253</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -4093,19 +4093,19 @@
         <v>16680</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9770</v>
+        <v>10081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26055</v>
+        <v>26397</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08805746612226217</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0515767461475989</v>
+        <v>0.05321633782775334</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1375503085361998</v>
+        <v>0.1393507063443948</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -4114,19 +4114,19 @@
         <v>24764</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16860</v>
+        <v>17297</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35527</v>
+        <v>35117</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07234111669435554</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04925090864596773</v>
+        <v>0.05052602943974771</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1037797185601661</v>
+        <v>0.1025833273428287</v>
       </c>
     </row>
     <row r="5">
@@ -4143,19 +4143,19 @@
         <v>20735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13130</v>
+        <v>12594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31980</v>
+        <v>31093</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1356097416448532</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08587204432543009</v>
+        <v>0.08236429359922559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2091464976445449</v>
+        <v>0.2033471326976305</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -4164,19 +4164,19 @@
         <v>36309</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26789</v>
+        <v>25840</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47639</v>
+        <v>47867</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1916776138228411</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.141422937673877</v>
+        <v>0.1364108415083583</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2514902659505758</v>
+        <v>0.2526941149947326</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -4185,19 +4185,19 @@
         <v>57044</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44138</v>
+        <v>43831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70814</v>
+        <v>70424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1666343366541301</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1289344091793171</v>
+        <v>0.1280387449254738</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2068592462890929</v>
+        <v>0.2057192572093028</v>
       </c>
     </row>
     <row r="6">
@@ -4214,19 +4214,19 @@
         <v>124085</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>112214</v>
+        <v>112966</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>132488</v>
+        <v>133146</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8115191723896082</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7338777997218556</v>
+        <v>0.7387975811924653</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8664695082762467</v>
+        <v>0.8707746926004334</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>137</v>
@@ -4235,19 +4235,19 @@
         <v>136436</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>123744</v>
+        <v>123888</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147653</v>
+        <v>147171</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7202649200548967</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6532595843553136</v>
+        <v>0.6540197045925531</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7794798141534851</v>
+        <v>0.7769361322274323</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>254</v>
@@ -4256,19 +4256,19 @@
         <v>260521</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>244948</v>
+        <v>244019</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>275152</v>
+        <v>275780</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7610245466515143</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7155352434386063</v>
+        <v>0.712820081799167</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8037645405252817</v>
+        <v>0.8056004680517457</v>
       </c>
     </row>
     <row r="7">
@@ -4360,19 +4360,19 @@
         <v>7163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2990</v>
+        <v>2873</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14383</v>
+        <v>13704</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03003261354933346</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01253829213360491</v>
+        <v>0.01204628996681542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06030376941224396</v>
+        <v>0.05745887035507546</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -4381,19 +4381,19 @@
         <v>26881</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17500</v>
+        <v>17586</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40117</v>
+        <v>38293</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07590804520647215</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04941584782255358</v>
+        <v>0.0496608113251032</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1132842298263699</v>
+        <v>0.1081334187288227</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -4402,19 +4402,19 @@
         <v>34044</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23991</v>
+        <v>23737</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47762</v>
+        <v>48639</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05744573556232982</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04048169199602944</v>
+        <v>0.04005393478992785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08059295094374358</v>
+        <v>0.08207238739608952</v>
       </c>
     </row>
     <row r="9">
@@ -4431,19 +4431,19 @@
         <v>28778</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19434</v>
+        <v>19986</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>39646</v>
+        <v>39093</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1206603707732489</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08148274493515675</v>
+        <v>0.0838001014307331</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1662314104792618</v>
+        <v>0.1639099552807825</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>59</v>
@@ -4452,19 +4452,19 @@
         <v>59574</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>45829</v>
+        <v>47259</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>75062</v>
+        <v>74136</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1682259308684597</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1294126151593558</v>
+        <v>0.1334513548090904</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2119629207831264</v>
+        <v>0.2093471436758146</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>87</v>
@@ -4473,19 +4473,19 @@
         <v>88351</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>71608</v>
+        <v>71538</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>106864</v>
+        <v>108332</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1490834385331709</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.120830797014874</v>
+        <v>0.1207124780687494</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.180322398549684</v>
+        <v>0.182798098060954</v>
       </c>
     </row>
     <row r="10">
@@ -4502,19 +4502,19 @@
         <v>202561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>189751</v>
+        <v>191254</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>213401</v>
+        <v>212554</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8493070156774176</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7955964199761518</v>
+        <v>0.8018981195838111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8947597397404934</v>
+        <v>0.8912068672966461</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>259</v>
@@ -4523,19 +4523,19 @@
         <v>267674</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>249279</v>
+        <v>250219</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>283454</v>
+        <v>282349</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7558660239250682</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7039212810761333</v>
+        <v>0.7065770978463499</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8004250602964125</v>
+        <v>0.7973060203843096</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>444</v>
@@ -4544,19 +4544,19 @@
         <v>470235</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>446934</v>
+        <v>446280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>488579</v>
+        <v>488768</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7934708259044992</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7541531164374833</v>
+        <v>0.7530491515042101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8244251462563761</v>
+        <v>0.8247433145109917</v>
       </c>
     </row>
     <row r="11">
@@ -4648,19 +4648,19 @@
         <v>8024</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3135</v>
+        <v>3204</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15541</v>
+        <v>15459</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05509387998523651</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02152550851046402</v>
+        <v>0.022000477262343</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1066993634821233</v>
+        <v>0.1061360091273812</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -4669,19 +4669,19 @@
         <v>35832</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26508</v>
+        <v>25469</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>48348</v>
+        <v>46739</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1535738999363852</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.113611362482384</v>
+        <v>0.109159634921069</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2072191247578249</v>
+        <v>0.2003233701074942</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -4690,19 +4690,19 @@
         <v>43856</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32679</v>
+        <v>31558</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>58503</v>
+        <v>57710</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1157249107985889</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08623198360916851</v>
+        <v>0.08327403142217225</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1543732413521569</v>
+        <v>0.1522810089968013</v>
       </c>
     </row>
     <row r="13">
@@ -4719,19 +4719,19 @@
         <v>47102</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35794</v>
+        <v>36252</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58580</v>
+        <v>60186</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3233915583493553</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2457566510179994</v>
+        <v>0.2489023357204284</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.402200473560573</v>
+        <v>0.4132296569181344</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -4740,19 +4740,19 @@
         <v>90709</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75988</v>
+        <v>76143</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>105617</v>
+        <v>105788</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3887768043181264</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3256821497325693</v>
+        <v>0.326346033801281</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4526731523172641</v>
+        <v>0.4534068487890652</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>132</v>
@@ -4761,19 +4761,19 @@
         <v>137811</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119398</v>
+        <v>117633</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>156242</v>
+        <v>157033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3636471844655739</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3150606489772012</v>
+        <v>0.3104024273253663</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4122837003936204</v>
+        <v>0.4143707012582384</v>
       </c>
     </row>
     <row r="14">
@@ -4790,19 +4790,19 @@
         <v>90523</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>78673</v>
+        <v>76838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101997</v>
+        <v>101077</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6215145616654081</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5401533164818421</v>
+        <v>0.5275587300752016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7002910930055778</v>
+        <v>0.6939798035977021</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -4811,19 +4811,19 @@
         <v>106778</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>90726</v>
+        <v>92092</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>122181</v>
+        <v>122529</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4576492957454884</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3888488287950412</v>
+        <v>0.394705110402744</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5236638722878877</v>
+        <v>0.5251567626291718</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>188</v>
@@ -4832,19 +4832,19 @@
         <v>197301</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>177237</v>
+        <v>179310</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>216812</v>
+        <v>216816</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5206279047358372</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4676824253245286</v>
+        <v>0.4731538064802361</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5721106623550817</v>
+        <v>0.5721216708992037</v>
       </c>
     </row>
     <row r="15">
@@ -4936,19 +4936,19 @@
         <v>10477</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5015</v>
+        <v>5379</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17942</v>
+        <v>18283</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05685974539192802</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02721745631382915</v>
+        <v>0.02919343159566085</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09737245082443723</v>
+        <v>0.09922331918685426</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -4957,19 +4957,19 @@
         <v>30526</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21366</v>
+        <v>21159</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41456</v>
+        <v>41569</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.104603367018393</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07321394202635487</v>
+        <v>0.07250389179389241</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1420573950684471</v>
+        <v>0.1424445731446057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -4978,19 +4978,19 @@
         <v>41003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30003</v>
+        <v>29967</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53848</v>
+        <v>54715</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08612486708427214</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06301936195143741</v>
+        <v>0.06294255281894533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1131038126558026</v>
+        <v>0.1149241226787893</v>
       </c>
     </row>
     <row r="17">
@@ -5007,19 +5007,19 @@
         <v>36865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27254</v>
+        <v>25910</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49404</v>
+        <v>49624</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2000653811833113</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1479071257642897</v>
+        <v>0.140613018929778</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2681145635786008</v>
+        <v>0.2693090892486938</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>64</v>
@@ -5028,19 +5028,19 @@
         <v>67117</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53198</v>
+        <v>54613</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81569</v>
+        <v>82357</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2299882638364007</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1822939332991399</v>
+        <v>0.187139739453428</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2795089910208263</v>
+        <v>0.2822105321374763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>99</v>
@@ -5049,19 +5049,19 @@
         <v>103982</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>87560</v>
+        <v>85111</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123694</v>
+        <v>123759</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2184070312801482</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1839135082791584</v>
+        <v>0.1787691074504664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2598107612508357</v>
+        <v>0.2599463335125383</v>
       </c>
     </row>
     <row r="18">
@@ -5078,19 +5078,19 @@
         <v>136923</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>124042</v>
+        <v>124290</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>148113</v>
+        <v>149258</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7430748734247606</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6731710364037513</v>
+        <v>0.6745173641268548</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8038053669914499</v>
+        <v>0.8100166070857623</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>185</v>
@@ -5099,19 +5099,19 @@
         <v>194185</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>177676</v>
+        <v>177467</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>209816</v>
+        <v>209407</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6654083691452063</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6088374345355045</v>
+        <v>0.6081221782125266</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7189710288141873</v>
+        <v>0.7175713393837263</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>323</v>
@@ -5120,19 +5120,19 @@
         <v>331107</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>308438</v>
+        <v>309084</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>349385</v>
+        <v>352789</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6954681016355797</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6478533923281807</v>
+        <v>0.6492084666237021</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.733858542845447</v>
+        <v>0.741009433308738</v>
       </c>
     </row>
     <row r="19">
@@ -5224,19 +5224,19 @@
         <v>33749</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23772</v>
+        <v>22797</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46940</v>
+        <v>46396</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04678741649205276</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03295573276080894</v>
+        <v>0.0316041388614272</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06507543206804348</v>
+        <v>0.06432096322304294</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>106</v>
@@ -5245,19 +5245,19 @@
         <v>109919</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>92420</v>
+        <v>89956</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>134262</v>
+        <v>129879</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1028532741204149</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08647852923290802</v>
+        <v>0.08417305082695294</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1256315125834086</v>
+        <v>0.1215302400010904</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -5266,19 +5266,19 @@
         <v>143668</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>122347</v>
+        <v>120501</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>168219</v>
+        <v>168124</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08026055684421203</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06834972448228495</v>
+        <v>0.06731843301774652</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09397610325646469</v>
+        <v>0.09392282644341349</v>
       </c>
     </row>
     <row r="21">
@@ -5295,19 +5295,19 @@
         <v>133480</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>114005</v>
+        <v>113459</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>157648</v>
+        <v>157883</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1850493678887205</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.15805048906169</v>
+        <v>0.1572930511131347</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2185545931172944</v>
+        <v>0.2188803446138191</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>249</v>
@@ -5316,19 +5316,19 @@
         <v>253708</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>227094</v>
+        <v>226176</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>283571</v>
+        <v>281989</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2373986428072218</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2124957432226658</v>
+        <v>0.2116362439856689</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2653418967311512</v>
+        <v>0.2638614878087482</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>375</v>
@@ -5337,19 +5337,19 @@
         <v>387188</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>353915</v>
+        <v>353339</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>422530</v>
+        <v>425276</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2163035874940999</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1977154936080095</v>
+        <v>0.1973940367893309</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2360478229103545</v>
+        <v>0.2375817217244287</v>
       </c>
     </row>
     <row r="22">
@@ -5366,19 +5366,19 @@
         <v>554091</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>528457</v>
+        <v>527244</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>575840</v>
+        <v>574430</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7681632156192267</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7326243348054727</v>
+        <v>0.7309426515607215</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7983137543631605</v>
+        <v>0.7963592603598273</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>684</v>
@@ -5387,19 +5387,19 @@
         <v>705073</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>671349</v>
+        <v>671802</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>733837</v>
+        <v>735957</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6597480830723633</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6281924516202821</v>
+        <v>0.6286157651145065</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6866633445758615</v>
+        <v>0.6886470139699518</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1209</v>
@@ -5408,19 +5408,19 @@
         <v>1259164</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1219933</v>
+        <v>1221133</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1294983</v>
+        <v>1297658</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.703435855661688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6815191239247702</v>
+        <v>0.68218969817304</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7234463077203298</v>
+        <v>0.7249407768844675</v>
       </c>
     </row>
     <row r="23">
@@ -5755,16 +5755,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5906</v>
+        <v>4511</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02395984299105915</v>
+        <v>0.02395984299105916</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1407209212551712</v>
+        <v>0.1074741241826301</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9515</v>
+        <v>10435</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05332963015359552</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1652952091758969</v>
+        <v>0.1812787694678931</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -5794,19 +5794,19 @@
         <v>4076</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1006</v>
+        <v>981</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10788</v>
+        <v>11091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04094508864173167</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01011023510514069</v>
+        <v>0.009858848779978082</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1083845115187813</v>
+        <v>0.111422210519461</v>
       </c>
     </row>
     <row r="5">
@@ -5823,19 +5823,19 @@
         <v>6795</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3057</v>
+        <v>2997</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12906</v>
+        <v>12634</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1618980039942293</v>
+        <v>0.1618980039942294</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07283927055679265</v>
+        <v>0.0713953285511886</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3074841616702726</v>
+        <v>0.3010029403230197</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -5844,19 +5844,19 @@
         <v>15519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9720</v>
+        <v>9394</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22259</v>
+        <v>22403</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2695879454141125</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1688481571543704</v>
+        <v>0.163193238811947</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.386673911506654</v>
+        <v>0.3891633241462544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -5865,19 +5865,19 @@
         <v>22314</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15490</v>
+        <v>14828</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31967</v>
+        <v>31146</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2241776554946144</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.155620524587712</v>
+        <v>0.1489618488441108</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3211501805359179</v>
+        <v>0.3129050601448199</v>
       </c>
     </row>
     <row r="6">
@@ -5894,19 +5894,19 @@
         <v>34172</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28010</v>
+        <v>28115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38305</v>
+        <v>38321</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8141421530147113</v>
+        <v>0.8141421530147116</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6673395380984933</v>
+        <v>0.6698238722964784</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9126205908976441</v>
+        <v>0.91299653443673</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -5915,19 +5915,19 @@
         <v>38977</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31364</v>
+        <v>32028</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45184</v>
+        <v>45271</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6770824244322921</v>
+        <v>0.6770824244322919</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5448360411535118</v>
+        <v>0.5563668131404549</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7849056021036362</v>
+        <v>0.786416490229224</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>78</v>
@@ -5936,19 +5936,19 @@
         <v>73149</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>62816</v>
+        <v>63939</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>81242</v>
+        <v>81749</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7348772558636539</v>
+        <v>0.7348772558636538</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6310692903637773</v>
+        <v>0.6423490548536689</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8161873421664789</v>
+        <v>0.8212780312716234</v>
       </c>
     </row>
     <row r="7">
@@ -6040,19 +6040,19 @@
         <v>3683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1073</v>
+        <v>1053</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10548</v>
+        <v>9546</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04375379556946022</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01275029090294153</v>
+        <v>0.01251071267507284</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1253181692212533</v>
+        <v>0.1134078954103573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -6061,19 +6061,19 @@
         <v>3865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10708</v>
+        <v>10326</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.02975567365482052</v>
+        <v>0.02975567365482051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006694081230606033</v>
+        <v>0.006555466440476829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08242844053079326</v>
+        <v>0.0794861868754574</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -6082,19 +6082,19 @@
         <v>7548</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3268</v>
+        <v>3634</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14844</v>
+        <v>15415</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03525952092573468</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01526413096864802</v>
+        <v>0.01697642082724697</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06933823311907596</v>
+        <v>0.07200469262799028</v>
       </c>
     </row>
     <row r="9">
@@ -6111,19 +6111,19 @@
         <v>8299</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3275</v>
+        <v>3009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17268</v>
+        <v>16910</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09859514362328027</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03890576052350642</v>
+        <v>0.03574904164618482</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2051517790504194</v>
+        <v>0.2008926132991399</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -6132,19 +6132,19 @@
         <v>26970</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19116</v>
+        <v>18812</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36938</v>
+        <v>35946</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2076118951497968</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1471547309011526</v>
+        <v>0.1448143711791235</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2843496693299081</v>
+        <v>0.2767114583875612</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -6153,19 +6153,19 @@
         <v>35269</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>25603</v>
+        <v>24735</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>46270</v>
+        <v>47856</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1647481771430523</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1195953125863289</v>
+        <v>0.1155418895422286</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2161368465637278</v>
+        <v>0.2235443675364938</v>
       </c>
     </row>
     <row r="10">
@@ -6182,19 +6182,19 @@
         <v>72190</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62589</v>
+        <v>62773</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77848</v>
+        <v>78069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8576510608072595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7435891597861767</v>
+        <v>0.7457758645691237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9248684091453646</v>
+        <v>0.9274977972900236</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -6203,19 +6203,19 @@
         <v>99070</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90299</v>
+        <v>89616</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108238</v>
+        <v>108053</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7626324311953827</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6951157133363183</v>
+        <v>0.6898543798907274</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8332070760157403</v>
+        <v>0.8317882882616665</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -6224,19 +6224,19 @@
         <v>171260</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159521</v>
+        <v>157759</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181476</v>
+        <v>182294</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7999923019312131</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.745155015025216</v>
+        <v>0.7369263465622752</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.847713626734497</v>
+        <v>0.8515369392228281</v>
       </c>
     </row>
     <row r="11">
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9039</v>
+        <v>9345</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1110332857801044</v>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3423511833034571</v>
+        <v>0.353922664253552</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -6349,19 +6349,19 @@
         <v>5696</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2184</v>
+        <v>1848</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11581</v>
+        <v>12710</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09362775312356279</v>
+        <v>0.09362775312356281</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03589926874744645</v>
+        <v>0.0303824008487984</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1903815774827372</v>
+        <v>0.2089319568175664</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -6370,19 +6370,19 @@
         <v>8627</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3636</v>
+        <v>4105</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16800</v>
+        <v>16150</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09889588804042898</v>
+        <v>0.09889588804042897</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0416767397367202</v>
+        <v>0.04706211781962443</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1925843031192879</v>
+        <v>0.1851359062120137</v>
       </c>
     </row>
     <row r="13">
@@ -6402,16 +6402,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4000</v>
+        <v>4408</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03074759872095015</v>
+        <v>0.03074759872095014</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1515064923029368</v>
+        <v>0.1669583175283745</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -6420,19 +6420,19 @@
         <v>11982</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6599</v>
+        <v>6776</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19828</v>
+        <v>20469</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1969709778829708</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1084717380991383</v>
+        <v>0.1113828214431091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3259480136156094</v>
+        <v>0.3364828771455046</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -6441,19 +6441,19 @@
         <v>12794</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7175</v>
+        <v>7123</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21475</v>
+        <v>21739</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1466601252912913</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08224763432001612</v>
+        <v>0.08165205296684347</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2461774248089094</v>
+        <v>0.2491971639234318</v>
       </c>
     </row>
     <row r="14">
@@ -6470,19 +6470,19 @@
         <v>22660</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16551</v>
+        <v>16296</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25532</v>
+        <v>25531</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8582191154989456</v>
+        <v>0.8582191154989453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6268537147423182</v>
+        <v>0.6172011786177856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9670097600526574</v>
+        <v>0.9669874083304649</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -6491,19 +6491,19 @@
         <v>43154</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35556</v>
+        <v>34650</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49798</v>
+        <v>49658</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7094012689934664</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5844976361598384</v>
+        <v>0.5695968622393914</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8186234207755168</v>
+        <v>0.8163136650411921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>66</v>
@@ -6512,19 +6512,19 @@
         <v>65814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>56463</v>
+        <v>56504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74174</v>
+        <v>73301</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7544439866682796</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6472557760564798</v>
+        <v>0.6477181146853987</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8502809167316909</v>
+        <v>0.8402737372578817</v>
       </c>
     </row>
     <row r="15">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4488</v>
+        <v>4361</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02186955014993591</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1074830280545525</v>
+        <v>0.1044469377628756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -6637,19 +6637,19 @@
         <v>2372</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7431</v>
+        <v>6287</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03619510881142127</v>
+        <v>0.03619510881142128</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01076507263265902</v>
+        <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1133930895142385</v>
+        <v>0.09593972137656581</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -6658,19 +6658,19 @@
         <v>3285</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>884</v>
+        <v>919</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8383</v>
+        <v>7785</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0306198639534102</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008236168927441941</v>
+        <v>0.008570056748430933</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07813510241334831</v>
+        <v>0.07256582321968583</v>
       </c>
     </row>
     <row r="17">
@@ -6687,19 +6687,19 @@
         <v>3556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>889</v>
+        <v>853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8733</v>
+        <v>8787</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08516675481157172</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02129747922436833</v>
+        <v>0.02042987568741432</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2091490369242108</v>
+        <v>0.2104528910772084</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -6708,19 +6708,19 @@
         <v>13017</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7732</v>
+        <v>7568</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19703</v>
+        <v>19500</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1986353924785618</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1179938539137523</v>
+        <v>0.1154837522968811</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3006571042160735</v>
+        <v>0.2975550130284695</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -6729,19 +6729,19 @@
         <v>16573</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10701</v>
+        <v>10119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24612</v>
+        <v>24146</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1544754784642336</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09974346446788421</v>
+        <v>0.09431590294589905</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2294068771464469</v>
+        <v>0.2250595417914621</v>
       </c>
     </row>
     <row r="18">
@@ -6758,19 +6758,19 @@
         <v>37285</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31999</v>
+        <v>32461</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40096</v>
+        <v>40111</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8929636950384923</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7663637574298211</v>
+        <v>0.7774317498353752</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9602899341782629</v>
+        <v>0.960642554964848</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>61</v>
@@ -6779,19 +6779,19 @@
         <v>50144</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>43517</v>
+        <v>43470</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56155</v>
+        <v>55922</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.7651694987100172</v>
+        <v>0.7651694987100168</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6640411517047977</v>
+        <v>0.6633237611092633</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8568949523630152</v>
+        <v>0.8533422931463378</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>95</v>
@@ -6800,19 +6800,19 @@
         <v>87429</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>79103</v>
+        <v>79183</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>94046</v>
+        <v>94103</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8149046575823561</v>
+        <v>0.8149046575823562</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.737301016383535</v>
+        <v>0.7380443871344355</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8765802909223024</v>
+        <v>0.8771186275762851</v>
       </c>
     </row>
     <row r="19">
@@ -6904,19 +6904,19 @@
         <v>8533</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3837</v>
+        <v>3436</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17459</v>
+        <v>17194</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04391767478005828</v>
+        <v>0.04391767478005827</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01974932069148804</v>
+        <v>0.01768625699519846</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0898574223901214</v>
+        <v>0.08848877305782256</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -6925,19 +6925,19 @@
         <v>15003</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8492</v>
+        <v>8386</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25284</v>
+        <v>25999</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04780490547651343</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02705806184882593</v>
+        <v>0.02672102148487447</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08056411779657506</v>
+        <v>0.08284421748032682</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -6946,19 +6946,19 @@
         <v>23536</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15026</v>
+        <v>14533</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34869</v>
+        <v>34775</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.04631850036105852</v>
+        <v>0.04631850036105851</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02957043469407707</v>
+        <v>0.02860092669780339</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06862160593500231</v>
+        <v>0.06843549701311333</v>
       </c>
     </row>
     <row r="21">
@@ -6975,19 +6975,19 @@
         <v>19462</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12333</v>
+        <v>12186</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31239</v>
+        <v>29914</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1001644284596449</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06347409780000399</v>
+        <v>0.06271830731559232</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1607777089989164</v>
+        <v>0.1539581855288241</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>74</v>
@@ -6996,19 +6996,19 @@
         <v>67488</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54300</v>
+        <v>54417</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>84216</v>
+        <v>82989</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2150429473871673</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1730198134906261</v>
+        <v>0.1733942125346375</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2683463700299828</v>
+        <v>0.2644351166411036</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>92</v>
@@ -7017,19 +7017,19 @@
         <v>86950</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>71128</v>
+        <v>69536</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>104575</v>
+        <v>104553</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1711155266798063</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1399781382658989</v>
+        <v>0.1368452914648179</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2058015072343335</v>
+        <v>0.2057579458829266</v>
       </c>
     </row>
     <row r="22">
@@ -7046,19 +7046,19 @@
         <v>166307</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>153298</v>
+        <v>154574</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>174744</v>
+        <v>175496</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8559178967602967</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.788966446064601</v>
+        <v>0.7955366852083635</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8993409094311992</v>
+        <v>0.903213900286048</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>277</v>
@@ -7067,19 +7067,19 @@
         <v>231344</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>216130</v>
+        <v>214403</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>246109</v>
+        <v>245920</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7371521471363193</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.688673919947157</v>
+        <v>0.6831715592026826</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7841972371427665</v>
+        <v>0.7835978202494517</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>417</v>
@@ -7088,19 +7088,19 @@
         <v>397651</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>379014</v>
+        <v>377336</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>417003</v>
+        <v>416230</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7825659729591351</v>
+        <v>0.782565972959135</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7458894708587922</v>
+        <v>0.742586320054286</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8206515409510025</v>
+        <v>0.8191303291637452</v>
       </c>
     </row>
     <row r="23">
